--- a/data/trans_orig/P16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51233EB0-0DA8-464D-A5E8-D2FF42A52C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{832AD6BF-1D4C-428B-82A4-2013383339EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69079F3C-A39B-43F8-BF70-5787C9763646}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDD476BB-064E-48FE-9C59-C257187A32AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1249 +77,1255 @@
     <t>39,78%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
   <si>
     <t>54,1%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>41,01%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>37,03%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>37,27%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508FCA1A-31F4-4A0C-B2B5-32BAB9940245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE7D4A6-078B-4A28-A0AD-BF22CDDB98D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2657,16 +2663,16 @@
         <v>3268</v>
       </c>
       <c r="N19" s="7">
-        <v>3307338</v>
+        <v>3307339</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,16 +2684,16 @@
         <v>1878</v>
       </c>
       <c r="D20" s="7">
-        <v>1947662</v>
+        <v>1947663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -2696,13 +2702,13 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>3242</v>
@@ -2711,13 +2717,13 @@
         <v>3347384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2735,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2759,7 +2765,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC604F4-59DC-4494-94AD-CC63BE204737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F026CA1-834E-43B6-853E-27245D037CD4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2924,13 @@
         <v>59129</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -2933,13 +2939,13 @@
         <v>78659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -2948,13 +2954,13 @@
         <v>137788</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2975,13 @@
         <v>56636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -2984,13 +2990,13 @@
         <v>33246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -2999,13 +3005,13 @@
         <v>89882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>307475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -3088,13 +3094,13 @@
         <v>400066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>660</v>
@@ -3103,13 +3109,13 @@
         <v>707540</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>278339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -3139,13 +3145,13 @@
         <v>185079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>441</v>
@@ -3154,13 +3160,13 @@
         <v>463418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3234,13 @@
         <v>509319</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>663</v>
@@ -3243,13 +3249,13 @@
         <v>731230</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>1129</v>
@@ -3258,13 +3264,13 @@
         <v>1240549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3285,13 @@
         <v>508628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -3294,13 +3300,13 @@
         <v>299920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>746</v>
@@ -3309,13 +3315,13 @@
         <v>808548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3389,13 @@
         <v>360487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>474</v>
@@ -3398,13 +3404,13 @@
         <v>526357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>794</v>
@@ -3413,13 +3419,13 @@
         <v>886844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3440,13 @@
         <v>396051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -3449,13 +3455,13 @@
         <v>249926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -3464,13 +3470,13 @@
         <v>645977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3544,13 @@
         <v>488813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>726</v>
@@ -3553,13 +3559,13 @@
         <v>760458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>1183</v>
@@ -3568,13 +3574,13 @@
         <v>1249271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3595,13 @@
         <v>457117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -3604,13 +3610,13 @@
         <v>290466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>727</v>
@@ -3619,13 +3625,13 @@
         <v>747584</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3699,13 @@
         <v>1725223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>2311</v>
@@ -3708,13 +3714,13 @@
         <v>2496770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>3897</v>
@@ -3723,7 +3729,7 @@
         <v>4221993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>216</v>
@@ -3747,25 +3753,25 @@
         <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>984</v>
       </c>
       <c r="I20" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>2602</v>
@@ -3774,13 +3780,13 @@
         <v>2755408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,7 +3813,7 @@
         <v>3295</v>
       </c>
       <c r="I21" s="7">
-        <v>3555408</v>
+        <v>3555407</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3836,7 +3842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA390F8-A99F-478F-A655-B05750803F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7E5FD-7AF8-42BE-A69C-A6DCF2014AB1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3987,13 @@
         <v>59022</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -3996,13 +4002,13 @@
         <v>80346</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -4011,13 +4017,13 @@
         <v>139367</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4038,13 @@
         <v>57524</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4047,13 +4053,13 @@
         <v>33014</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -4062,13 +4068,13 @@
         <v>90539</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4148,7 @@
         <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>361</v>
@@ -4151,13 +4157,13 @@
         <v>374900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>633</v>
@@ -4169,10 +4175,10 @@
         <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4193,13 @@
         <v>278423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>190</v>
@@ -4202,13 +4208,13 @@
         <v>184579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
@@ -4217,13 +4223,13 @@
         <v>463001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4297,13 @@
         <v>500266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>622</v>
@@ -4306,13 +4312,13 @@
         <v>681344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>1089</v>
@@ -4321,13 +4327,13 @@
         <v>1181610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4348,13 @@
         <v>522165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -4357,13 +4363,13 @@
         <v>361569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>839</v>
@@ -4372,13 +4378,13 @@
         <v>883734</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4452,13 @@
         <v>352576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>439</v>
@@ -4461,13 +4467,13 @@
         <v>481015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>765</v>
@@ -4476,13 +4482,13 @@
         <v>833591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4503,13 @@
         <v>406976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -4512,13 +4518,13 @@
         <v>303996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -4527,13 +4533,13 @@
         <v>710972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4607,13 @@
         <v>498294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>610</v>
@@ -4616,13 +4622,13 @@
         <v>681012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>1108</v>
@@ -4631,13 +4637,13 @@
         <v>1179306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4658,13 @@
         <v>439273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>349</v>
@@ -4667,13 +4673,13 @@
         <v>362767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4682,13 +4688,13 @@
         <v>802040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4762,13 @@
         <v>1689989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>2111</v>
@@ -4771,13 +4777,13 @@
         <v>2298617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>3732</v>
@@ -4786,13 +4792,13 @@
         <v>3988605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4813,13 @@
         <v>1704361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>1227</v>
@@ -4822,13 +4828,13 @@
         <v>1245925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>2837</v>
@@ -4837,13 +4843,13 @@
         <v>2950287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62946374-B6F9-49A9-8539-E4CE441FCC9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B2D2E-B84F-4FB3-B002-D8FA513E8DDA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5050,13 @@
         <v>57847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>178</v>
@@ -5059,13 +5065,13 @@
         <v>88700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>250</v>
@@ -5074,13 +5080,13 @@
         <v>146546</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5101,13 @@
         <v>44135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -5110,13 +5116,13 @@
         <v>42033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -5125,13 +5131,13 @@
         <v>86169</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5205,13 @@
         <v>303035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>678</v>
@@ -5214,13 +5220,13 @@
         <v>376636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>1059</v>
@@ -5229,13 +5235,13 @@
         <v>679671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5256,13 @@
         <v>246788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
@@ -5265,13 +5271,13 @@
         <v>216326</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>549</v>
@@ -5280,13 +5286,13 @@
         <v>463114</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5360,13 @@
         <v>466193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>1036</v>
@@ -5369,13 +5375,13 @@
         <v>665121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>1549</v>
@@ -5384,13 +5390,13 @@
         <v>1131313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5411,13 @@
         <v>573055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -5420,13 +5426,13 @@
         <v>394353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>931</v>
@@ -5435,13 +5441,13 @@
         <v>967409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5515,13 @@
         <v>397821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>683</v>
@@ -5524,13 +5530,13 @@
         <v>568085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>1085</v>
@@ -5539,13 +5545,13 @@
         <v>965906</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5566,13 @@
         <v>330951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -5575,13 +5581,13 @@
         <v>306286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -5590,13 +5596,13 @@
         <v>637236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5670,13 @@
         <v>541860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>1092</v>
@@ -5679,13 +5685,13 @@
         <v>762393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>1712</v>
@@ -5694,13 +5700,13 @@
         <v>1304253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5721,13 @@
         <v>423543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>467</v>
@@ -5730,13 +5736,13 @@
         <v>383910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -5745,13 +5751,13 @@
         <v>807453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,10 +5828,10 @@
         <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>3667</v>
@@ -5834,13 +5840,13 @@
         <v>2460934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>5655</v>
@@ -5849,13 +5855,13 @@
         <v>4227689</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5876,13 @@
         <v>1618473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>1694</v>
@@ -5885,13 +5891,13 @@
         <v>1342908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>3082</v>
@@ -5900,13 +5906,13 @@
         <v>2961381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5968,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832AD6BF-1D4C-428B-82A4-2013383339EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB954D3-3070-4747-BB39-7ACB6D55EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDD476BB-064E-48FE-9C59-C257187A32AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE6CEFBF-1307-4100-BAAF-8658874201B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>39,78%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,916 +107,922 @@
     <t>60,22%</t>
   </si>
   <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>41,01%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>55,72%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>48,35%</t>
   </si>
   <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
     <t>45,53%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
     <t>50,13%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>49,87%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
   </si>
   <si>
     <t>48,93%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>57,21%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>51,07%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>42,78%</t>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>41,29%</t>
   </si>
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
@@ -1025,9 +1031,6 @@
     <t>56,72%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
     <t>66,64%</t>
   </si>
   <si>
@@ -1055,9 +1058,6 @@
     <t>33,36%</t>
   </si>
   <si>
-    <t>53,1%</t>
-  </si>
-  <si>
     <t>32,15%</t>
   </si>
   <si>
@@ -1172,9 +1172,6 @@
     <t>50,73%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
     <t>50,27%</t>
   </si>
   <si>
@@ -1190,18 +1187,12 @@
     <t>77,26%</t>
   </si>
   <si>
-    <t>60,25%</t>
-  </si>
-  <si>
     <t>56,07%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
     <t>41,0%</t>
   </si>
   <si>
@@ -1217,9 +1208,6 @@
     <t>41,45%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
     <t>31,0%</t>
   </si>
   <si>
@@ -1244,9 +1232,6 @@
     <t>69,3%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
     <t>63,85%</t>
   </si>
   <si>
@@ -1268,15 +1253,9 @@
     <t>36,39%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
     <t>36,15%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
     <t>48,73%</t>
   </si>
   <si>
@@ -1299,9 +1278,6 @@
   </si>
   <si>
     <t>61,13%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
   </si>
   <si>
     <t>45,86%</t>
@@ -1737,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE7D4A6-078B-4A28-A0AD-BF22CDDB98D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2D6E4-2FA9-4E58-A8F4-6828BC6A3888}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2657,7 +2633,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>3268</v>
@@ -2666,13 +2642,13 @@
         <v>3307339</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,16 +2660,16 @@
         <v>1878</v>
       </c>
       <c r="D20" s="7">
-        <v>1947663</v>
+        <v>1947662</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -2702,13 +2678,13 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>3242</v>
@@ -2717,13 +2693,13 @@
         <v>3347384</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2711,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2779,7 +2755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F026CA1-834E-43B6-853E-27245D037CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C357B6-091D-4655-A171-81AC7CECC866}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2900,13 @@
         <v>59129</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -2939,13 +2915,13 @@
         <v>78659</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -2954,13 +2930,13 @@
         <v>137788</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2951,7 @@
         <v>56636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>133</v>
@@ -3109,13 +3085,13 @@
         <v>707540</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3106,13 @@
         <v>278339</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -3145,13 +3121,13 @@
         <v>185079</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>441</v>
@@ -3160,13 +3136,13 @@
         <v>463418</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3210,13 @@
         <v>509319</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>663</v>
@@ -3249,13 +3225,13 @@
         <v>731230</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>1129</v>
@@ -3264,13 +3240,13 @@
         <v>1240549</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3261,13 @@
         <v>508628</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -3300,13 +3276,13 @@
         <v>299920</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>746</v>
@@ -3315,13 +3291,13 @@
         <v>808548</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3365,13 @@
         <v>360487</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>474</v>
@@ -3404,13 +3380,13 @@
         <v>526357</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>794</v>
@@ -3419,13 +3395,13 @@
         <v>886844</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3416,13 @@
         <v>396051</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -3455,13 +3431,13 @@
         <v>249926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -3470,13 +3446,13 @@
         <v>645977</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3520,13 @@
         <v>488813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>726</v>
@@ -3559,13 +3535,13 @@
         <v>760458</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>1183</v>
@@ -3574,13 +3550,13 @@
         <v>1249271</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3571,13 @@
         <v>457117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -3610,13 +3586,13 @@
         <v>290466</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>727</v>
@@ -3625,13 +3601,13 @@
         <v>747584</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3675,13 @@
         <v>1725223</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>2311</v>
@@ -3714,13 +3690,13 @@
         <v>2496770</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>3897</v>
@@ -3729,13 +3705,13 @@
         <v>4221993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,10 +3726,10 @@
         <v>1696771</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>219</v>
@@ -3762,7 +3738,7 @@
         <v>984</v>
       </c>
       <c r="I20" s="7">
-        <v>1058637</v>
+        <v>1058638</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>220</v>
@@ -3780,13 +3756,13 @@
         <v>2755408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3789,7 @@
         <v>3295</v>
       </c>
       <c r="I21" s="7">
-        <v>3555407</v>
+        <v>3555408</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3842,7 +3818,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7E5FD-7AF8-42BE-A69C-A6DCF2014AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B92217-BC6B-4DCA-80E9-DAB79E0CB3BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +4139,7 @@
         <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>633</v>
@@ -4175,10 +4151,10 @@
         <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4169,13 @@
         <v>278423</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>190</v>
@@ -4208,13 +4184,13 @@
         <v>184579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
@@ -4223,13 +4199,13 @@
         <v>463001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4273,13 @@
         <v>500266</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>622</v>
@@ -4312,13 +4288,13 @@
         <v>681344</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>1089</v>
@@ -4327,13 +4303,13 @@
         <v>1181610</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4324,13 @@
         <v>522165</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -4363,13 +4339,13 @@
         <v>361569</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>839</v>
@@ -4378,13 +4354,13 @@
         <v>883734</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4428,13 @@
         <v>352576</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>439</v>
@@ -4467,13 +4443,13 @@
         <v>481015</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>765</v>
@@ -4482,10 +4458,10 @@
         <v>833591</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>284</v>
@@ -4506,10 +4482,10 @@
         <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -4518,13 +4494,13 @@
         <v>303996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -4533,13 +4509,13 @@
         <v>710972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4583,13 @@
         <v>498294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>610</v>
@@ -4622,13 +4598,13 @@
         <v>681012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>1108</v>
@@ -4637,13 +4613,13 @@
         <v>1179306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4634,13 @@
         <v>439273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>349</v>
@@ -4673,13 +4649,13 @@
         <v>362767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4688,13 +4664,13 @@
         <v>802040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4738,13 @@
         <v>1689989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>2111</v>
@@ -4777,13 +4753,13 @@
         <v>2298617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>3732</v>
@@ -4792,13 +4768,13 @@
         <v>3988605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4789,13 @@
         <v>1704361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>1227</v>
@@ -4828,13 +4804,13 @@
         <v>1245925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>2837</v>
@@ -4843,13 +4819,13 @@
         <v>2950287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4881,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B2D2E-B84F-4FB3-B002-D8FA513E8DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C96C26A-BF0C-4D40-8B3C-52E9A4A499E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5026,13 @@
         <v>57847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>178</v>
@@ -5065,13 +5041,13 @@
         <v>88700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>250</v>
@@ -5080,13 +5056,13 @@
         <v>146546</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5077,13 @@
         <v>44135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -5515,13 +5491,13 @@
         <v>397821</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>683</v>
@@ -5530,13 +5506,13 @@
         <v>568085</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>1085</v>
@@ -5545,13 +5521,13 @@
         <v>965906</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5542,13 @@
         <v>330951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -5581,13 +5557,13 @@
         <v>306286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -5596,13 +5572,13 @@
         <v>637236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5646,13 @@
         <v>541860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>1092</v>
@@ -5685,13 +5661,13 @@
         <v>762393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>1712</v>
@@ -5700,13 +5676,13 @@
         <v>1304253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5697,13 @@
         <v>423543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>467</v>
@@ -5736,13 +5712,13 @@
         <v>383910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -5751,10 +5727,10 @@
         <v>807453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>355</v>
@@ -5825,13 +5801,13 @@
         <v>1766755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>3667</v>
@@ -5840,13 +5816,13 @@
         <v>2460934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>5655</v>
@@ -5855,13 +5831,13 @@
         <v>4227689</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5852,13 @@
         <v>1618473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>1694</v>
@@ -5891,13 +5867,13 @@
         <v>1342908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>3082</v>
@@ -5906,13 +5882,13 @@
         <v>2961381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5944,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB954D3-3070-4747-BB39-7ACB6D55EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6300BB53-BB8A-45E4-B196-AB593BBE4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE6CEFBF-1307-4100-BAAF-8658874201B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D259867-826E-499D-945C-4D4C3D595355}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>60,22%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1168 +140,1186 @@
     <t>41,01%</t>
   </si>
   <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>55,72%</t>
   </si>
   <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
   </si>
   <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>41,18%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>60,25%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>39,75%</t>
   </si>
   <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>45,61%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2D6E4-2FA9-4E58-A8F4-6828BC6A3888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BCE04-FBFE-409E-9ECB-98B1A5F88C75}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2633,22 +2651,22 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>3268</v>
       </c>
       <c r="N19" s="7">
-        <v>3307339</v>
+        <v>3307338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2681,13 @@
         <v>1947662</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>1364</v>
@@ -2678,10 +2696,10 @@
         <v>1399722</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>117</v>
@@ -2696,10 +2714,10 @@
         <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2759,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2755,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C357B6-091D-4655-A171-81AC7CECC866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED7AF69-0CF3-4843-A511-91DE7CEC0D44}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2918,13 @@
         <v>59129</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -2915,13 +2933,13 @@
         <v>78659</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -2930,13 +2948,13 @@
         <v>137788</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2969,13 @@
         <v>56636</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -2966,13 +2984,13 @@
         <v>33246</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -2981,13 +2999,13 @@
         <v>89882</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3073,13 @@
         <v>307475</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -3070,13 +3088,13 @@
         <v>400066</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>660</v>
@@ -3085,13 +3103,13 @@
         <v>707540</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3124,13 @@
         <v>278339</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -3121,13 +3139,13 @@
         <v>185079</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>441</v>
@@ -3136,7 +3154,7 @@
         <v>463418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>155</v>
@@ -3523,10 +3541,10 @@
         <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>726</v>
@@ -3535,13 +3553,13 @@
         <v>760458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>1183</v>
@@ -3550,10 +3568,10 @@
         <v>1249271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>200</v>
@@ -3577,7 +3595,7 @@
         <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -3586,13 +3604,13 @@
         <v>290466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>727</v>
@@ -3601,13 +3619,13 @@
         <v>747584</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,10 +3726,10 @@
         <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3744,13 @@
         <v>1696771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>984</v>
@@ -3741,13 +3759,13 @@
         <v>1058638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>2602</v>
@@ -3756,13 +3774,13 @@
         <v>2755408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B92217-BC6B-4DCA-80E9-DAB79E0CB3BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F16BFEC-1376-4A18-8C54-DD113E04BB20}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,13 +3981,13 @@
         <v>59022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -3978,13 +3996,13 @@
         <v>80346</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -3993,13 +4011,13 @@
         <v>139367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4032,13 @@
         <v>57524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4029,13 +4047,13 @@
         <v>33014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -4044,13 +4062,13 @@
         <v>90539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4142,7 @@
         <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
         <v>361</v>
@@ -4133,13 +4151,13 @@
         <v>374900</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>633</v>
@@ -4172,10 +4190,10 @@
         <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>190</v>
@@ -4184,10 +4202,10 @@
         <v>184579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>255</v>
@@ -4199,7 +4217,7 @@
         <v>463001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>256</v>
@@ -4291,10 +4309,10 @@
         <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>1089</v>
@@ -4303,13 +4321,13 @@
         <v>1181610</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4342,13 @@
         <v>522165</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -4339,13 +4357,13 @@
         <v>361569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
         <v>839</v>
@@ -4354,13 +4372,13 @@
         <v>883734</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4446,13 @@
         <v>352576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>439</v>
@@ -4443,13 +4461,13 @@
         <v>481015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>765</v>
@@ -4458,13 +4476,13 @@
         <v>833591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4497,13 @@
         <v>406976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -4494,13 +4512,13 @@
         <v>303996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -4509,13 +4527,13 @@
         <v>710972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4601,13 @@
         <v>498294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>610</v>
@@ -4598,13 +4616,13 @@
         <v>681012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>1108</v>
@@ -4613,13 +4631,13 @@
         <v>1179306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4652,13 @@
         <v>439273</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>349</v>
@@ -4649,13 +4667,13 @@
         <v>362767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -4664,13 +4682,13 @@
         <v>802040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4756,13 @@
         <v>1689989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>2111</v>
@@ -4753,13 +4771,13 @@
         <v>2298617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>3732</v>
@@ -4768,13 +4786,13 @@
         <v>3988605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4807,13 @@
         <v>1704361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>1227</v>
@@ -4804,13 +4822,13 @@
         <v>1245925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>2837</v>
@@ -4819,13 +4837,13 @@
         <v>2950287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C96C26A-BF0C-4D40-8B3C-52E9A4A499E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE377B-0BF8-4A18-8C3B-115AFA612AC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,13 +5044,13 @@
         <v>57847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>178</v>
@@ -5041,13 +5059,13 @@
         <v>88700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>250</v>
@@ -5056,13 +5074,13 @@
         <v>146546</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5095,13 @@
         <v>44135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -5092,13 +5110,13 @@
         <v>42033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -5107,13 +5125,13 @@
         <v>86169</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5199,13 @@
         <v>303035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>678</v>
@@ -5196,13 +5214,13 @@
         <v>376636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>1059</v>
@@ -5211,13 +5229,13 @@
         <v>679671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5250,13 @@
         <v>246788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
@@ -5247,13 +5265,13 @@
         <v>216326</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>549</v>
@@ -5262,13 +5280,13 @@
         <v>463114</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5354,13 @@
         <v>466193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>1036</v>
@@ -5351,13 +5369,13 @@
         <v>665121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>1549</v>
@@ -5366,13 +5384,13 @@
         <v>1131313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5405,13 @@
         <v>573055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -5402,13 +5420,13 @@
         <v>394353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>931</v>
@@ -5417,13 +5435,13 @@
         <v>967409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5509,13 @@
         <v>397821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>683</v>
@@ -5506,13 +5524,13 @@
         <v>568085</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>1085</v>
@@ -5521,7 +5539,7 @@
         <v>965906</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>382</v>
@@ -5542,13 +5560,13 @@
         <v>330951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -5557,13 +5575,13 @@
         <v>306286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -5572,13 +5590,13 @@
         <v>637236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5664,13 @@
         <v>541860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>1092</v>
@@ -5661,13 +5679,13 @@
         <v>762393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>1712</v>
@@ -5676,13 +5694,13 @@
         <v>1304253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5715,13 @@
         <v>423543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>467</v>
@@ -5712,13 +5730,13 @@
         <v>383910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -5727,13 +5745,13 @@
         <v>807453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5819,13 @@
         <v>1766755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>3667</v>
@@ -5816,13 +5834,13 @@
         <v>2460934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>5655</v>
@@ -5831,13 +5849,13 @@
         <v>4227689</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5870,13 @@
         <v>1618473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>1694</v>
@@ -5867,13 +5885,13 @@
         <v>1342908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>3082</v>
@@ -5882,13 +5900,13 @@
         <v>2961381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6300BB53-BB8A-45E4-B196-AB593BBE4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD2FB0C-4A17-40E5-931F-C21209BDF76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D259867-826E-499D-945C-4D4C3D595355}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{58D886D5-BB8E-42CA-A0C9-D2401CF071B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1258 +68,1051 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>65,12%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>43,69%</t>
   </si>
   <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>60,72%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>61,8%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55BCE04-FBFE-409E-9ECB-98B1A5F88C75}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8EFE9-5B06-4B66-B40C-5E32DFB60095}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="D4" s="7">
-        <v>45885</v>
+        <v>282786</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>84</v>
+        <v>402</v>
       </c>
       <c r="I4" s="7">
-        <v>73421</v>
+        <v>394160</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1879,10 +1672,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>127</v>
+        <v>687</v>
       </c>
       <c r="N4" s="7">
-        <v>119305</v>
+        <v>676947</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1900,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1915,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1930,10 +1723,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1951,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1981,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="D7" s="7">
-        <v>236901</v>
+        <v>397525</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2019,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>536</v>
       </c>
       <c r="I7" s="7">
-        <v>320740</v>
+        <v>573464</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2034,10 +1827,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>560</v>
+        <v>917</v>
       </c>
       <c r="N7" s="7">
-        <v>557641</v>
+        <v>970989</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2055,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2070,10 +1863,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2085,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2106,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2121,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2136,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2159,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="D10" s="7">
-        <v>397525</v>
+        <v>264225</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2174,10 +1967,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>536</v>
+        <v>404</v>
       </c>
       <c r="I10" s="7">
-        <v>573464</v>
+        <v>395785</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2189,10 +1982,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>917</v>
+        <v>660</v>
       </c>
       <c r="N10" s="7">
-        <v>970989</v>
+        <v>660010</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2210,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2225,10 +2018,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2240,10 +2033,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2261,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2291,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>256</v>
+        <v>413</v>
       </c>
       <c r="D13" s="7">
-        <v>264225</v>
+        <v>383326</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2329,10 +2122,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>404</v>
+        <v>591</v>
       </c>
       <c r="I13" s="7">
-        <v>395785</v>
+        <v>616065</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2344,10 +2137,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>660</v>
+        <v>1004</v>
       </c>
       <c r="N13" s="7">
-        <v>660010</v>
+        <v>999392</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2365,49 +2158,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>406</v>
+      </c>
+      <c r="I14" s="7">
+        <v>422547</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>292</v>
-      </c>
-      <c r="I14" s="7">
-        <v>288056</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>987</v>
+      </c>
+      <c r="N14" s="7">
+        <v>981442</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>677</v>
-      </c>
-      <c r="N14" s="7">
-        <v>702340</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2431,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2446,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2463,55 +2256,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>413</v>
+        <v>1335</v>
       </c>
       <c r="D16" s="7">
-        <v>383326</v>
+        <v>1327863</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1933</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1979475</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>591</v>
-      </c>
-      <c r="I16" s="7">
-        <v>616065</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3268</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3307338</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1004</v>
-      </c>
-      <c r="N16" s="7">
-        <v>999392</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D17" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>406</v>
-      </c>
-      <c r="I17" s="7">
-        <v>422547</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3347384</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>987</v>
-      </c>
-      <c r="N17" s="7">
-        <v>981442</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2586,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2601,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2617,171 +2410,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1335</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1327863</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1933</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1979476</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3268</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3307338</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED7AF69-0CF3-4843-A511-91DE7CEC0D44}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AAB1EF-808C-4F64-8D40-F58E362338C8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,49 +2549,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>343</v>
       </c>
       <c r="D4" s="7">
-        <v>59129</v>
+        <v>366604</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>448</v>
       </c>
       <c r="I4" s="7">
-        <v>78659</v>
+        <v>478725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>791</v>
       </c>
       <c r="N4" s="7">
-        <v>137788</v>
+        <v>845329</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2600,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N5" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>701579</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3044,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1322</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1398629</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3067,49 +2704,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>282</v>
+        <v>466</v>
       </c>
       <c r="D7" s="7">
-        <v>307475</v>
+        <v>509319</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>378</v>
+        <v>663</v>
       </c>
       <c r="I7" s="7">
-        <v>400066</v>
+        <v>731230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>660</v>
+        <v>1129</v>
       </c>
       <c r="N7" s="7">
-        <v>707540</v>
+        <v>1240549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +2755,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I8" s="7">
-        <v>185079</v>
+        <v>299920</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N8" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3184,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1031150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3199,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1101</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1170958</v>
+        <v>2049097</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3222,49 +2859,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>509319</v>
+        <v>360487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>663</v>
+        <v>474</v>
       </c>
       <c r="I10" s="7">
-        <v>731230</v>
+        <v>526357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>1129</v>
+        <v>794</v>
       </c>
       <c r="N10" s="7">
-        <v>1240549</v>
+        <v>886844</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,49 +2910,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3339,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1031150</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3354,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2049097</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3377,49 +3014,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="D13" s="7">
-        <v>360487</v>
+        <v>488813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>474</v>
+        <v>726</v>
       </c>
       <c r="I13" s="7">
-        <v>526357</v>
+        <v>760458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>794</v>
+        <v>1183</v>
       </c>
       <c r="N13" s="7">
-        <v>886844</v>
+        <v>1249271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3065,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N14" s="7">
-        <v>645977</v>
+        <v>747584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>945930</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3494,10 +3131,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1050924</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3509,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1910</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1996855</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3526,55 +3163,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>457</v>
+        <v>1586</v>
       </c>
       <c r="D16" s="7">
-        <v>488813</v>
+        <v>1725223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>726</v>
+        <v>2311</v>
       </c>
       <c r="I16" s="7">
-        <v>760458</v>
+        <v>2496770</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>1183</v>
+        <v>3897</v>
       </c>
       <c r="N16" s="7">
-        <v>1249271</v>
+        <v>4221993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3220,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D17" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N17" s="7">
-        <v>747584</v>
+        <v>2755408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>945930</v>
+        <v>3421994</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3649,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1050924</v>
+        <v>3555407</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3664,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1910</v>
+        <v>6499</v>
       </c>
       <c r="N18" s="7">
-        <v>1996855</v>
+        <v>6977401</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3680,171 +3317,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1586</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1725223</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2311</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2496770</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3897</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4221993</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421994</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555408</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6499</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6977401</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F16BFEC-1376-4A18-8C54-DD113E04BB20}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7393821-8F78-4404-A0F0-4C899C91CEAC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,49 +3456,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="D4" s="7">
-        <v>59022</v>
+        <v>338853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="I4" s="7">
-        <v>80346</v>
+        <v>455246</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>137</v>
+        <v>770</v>
       </c>
       <c r="N4" s="7">
-        <v>139367</v>
+        <v>794099</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +3507,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4092,10 +3573,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4107,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4130,49 +3611,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="D7" s="7">
-        <v>279831</v>
+        <v>500266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>622</v>
       </c>
       <c r="I7" s="7">
-        <v>374900</v>
+        <v>681344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>633</v>
+        <v>1089</v>
       </c>
       <c r="N7" s="7">
-        <v>654732</v>
+        <v>1181610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +3662,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="M8" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4247,10 +3728,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4262,10 +3743,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4285,49 +3766,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="D10" s="7">
-        <v>500266</v>
+        <v>352576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
-        <v>622</v>
+        <v>439</v>
       </c>
       <c r="I10" s="7">
-        <v>681344</v>
+        <v>481015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
-        <v>1089</v>
+        <v>765</v>
       </c>
       <c r="N10" s="7">
-        <v>1181610</v>
+        <v>833591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +3817,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N11" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4402,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4417,10 +3898,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4440,49 +3921,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>326</v>
+        <v>498</v>
       </c>
       <c r="D13" s="7">
-        <v>352576</v>
+        <v>498294</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>439</v>
+        <v>610</v>
       </c>
       <c r="I13" s="7">
-        <v>481015</v>
+        <v>681012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>765</v>
+        <v>1108</v>
       </c>
       <c r="N13" s="7">
-        <v>833591</v>
+        <v>1179306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,49 +3972,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4557,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4572,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4589,55 +4070,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>498</v>
+        <v>1621</v>
       </c>
       <c r="D16" s="7">
-        <v>498294</v>
+        <v>1689989</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>610</v>
+        <v>2111</v>
       </c>
       <c r="I16" s="7">
-        <v>681012</v>
+        <v>2298617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>1108</v>
+        <v>3732</v>
       </c>
       <c r="N16" s="7">
-        <v>1179306</v>
+        <v>3988605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4127,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D17" s="7">
-        <v>439273</v>
+        <v>1704361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I17" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4712,10 +4193,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4727,10 +4208,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4743,171 +4224,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1621</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1689989</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2111</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2298617</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3732</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3988605</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1704361</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE377B-0BF8-4A18-8C3B-115AFA612AC8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D45068-6964-4E16-ADC4-7339AF51D82B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="D4" s="7">
-        <v>57847</v>
+        <v>351154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
-        <v>178</v>
+        <v>856</v>
       </c>
       <c r="I4" s="7">
-        <v>88700</v>
+        <v>436992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>250</v>
+        <v>1309</v>
       </c>
       <c r="N4" s="7">
-        <v>146546</v>
+        <v>788146</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +4414,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="D5" s="7">
-        <v>44135</v>
+        <v>284287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="I5" s="7">
-        <v>42033</v>
+        <v>238760</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>660</v>
       </c>
       <c r="N5" s="7">
-        <v>86169</v>
+        <v>523048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5155,10 +4480,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5170,10 +4495,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5193,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>513</v>
       </c>
       <c r="D7" s="7">
-        <v>303035</v>
+        <v>447481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
-        <v>678</v>
+        <v>1036</v>
       </c>
       <c r="I7" s="7">
-        <v>376636</v>
+        <v>608031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
-        <v>1059</v>
+        <v>1549</v>
       </c>
       <c r="N7" s="7">
-        <v>679671</v>
+        <v>1055512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="D8" s="7">
-        <v>246788</v>
+        <v>745383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="I8" s="7">
-        <v>216326</v>
+        <v>350075</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
-        <v>549</v>
+        <v>931</v>
       </c>
       <c r="N8" s="7">
-        <v>463114</v>
+        <v>1095459</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +4620,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5310,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5325,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5348,49 +4673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>513</v>
+        <v>402</v>
       </c>
       <c r="D10" s="7">
-        <v>466193</v>
+        <v>381360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
-        <v>1036</v>
+        <v>683</v>
       </c>
       <c r="I10" s="7">
-        <v>665121</v>
+        <v>627152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>1549</v>
+        <v>1085</v>
       </c>
       <c r="N10" s="7">
-        <v>1131313</v>
+        <v>1008512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>573055</v>
+        <v>323320</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="I11" s="7">
-        <v>394353</v>
+        <v>306214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
-        <v>931</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>967409</v>
+        <v>629534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5465,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5480,10 +4805,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5503,49 +4828,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>402</v>
+        <v>620</v>
       </c>
       <c r="D13" s="7">
-        <v>397821</v>
+        <v>525632</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
-        <v>683</v>
+        <v>1092</v>
       </c>
       <c r="I13" s="7">
-        <v>568085</v>
+        <v>750777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
-        <v>1085</v>
+        <v>1712</v>
       </c>
       <c r="N13" s="7">
-        <v>965906</v>
+        <v>1276409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D14" s="7">
-        <v>330951</v>
+        <v>401199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="I14" s="7">
-        <v>306286</v>
+        <v>340597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
-        <v>638</v>
+        <v>853</v>
       </c>
       <c r="N14" s="7">
-        <v>637236</v>
+        <v>741796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5620,10 +4945,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5635,10 +4960,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5652,55 +4977,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>620</v>
+        <v>1988</v>
       </c>
       <c r="D16" s="7">
-        <v>541860</v>
+        <v>1705627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
-        <v>1092</v>
+        <v>3667</v>
       </c>
       <c r="I16" s="7">
-        <v>762393</v>
+        <v>2422952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
-        <v>1712</v>
+        <v>5655</v>
       </c>
       <c r="N16" s="7">
-        <v>1304253</v>
+        <v>4128578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>386</v>
+        <v>1388</v>
       </c>
       <c r="D17" s="7">
-        <v>423543</v>
+        <v>1754190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
-        <v>467</v>
+        <v>1694</v>
       </c>
       <c r="I17" s="7">
-        <v>383910</v>
+        <v>1235646</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>853</v>
+        <v>3082</v>
       </c>
       <c r="N17" s="7">
-        <v>807453</v>
+        <v>2989837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,10 +5085,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5775,10 +5100,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5361</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658598</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5790,10 +5115,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8737</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7118415</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5806,171 +5131,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1988</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1766755</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3667</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2460934</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5655</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4227689</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1694</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3082</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5361</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803842</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8737</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7189070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
